--- a/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_18_5.xlsx
+++ b/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_18_5.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_0</t>
+          <t>model_18_5_4</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9584281331414569</v>
+        <v>0.9884698825305726</v>
       </c>
       <c r="C2" t="n">
-        <v>0.768309293167955</v>
+        <v>0.7817333804342801</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9773897021343271</v>
+        <v>0.7606943163372607</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.068283301736129</v>
+        <v>0.9683835610776977</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8910391071713341</v>
+        <v>0.9038287391923061</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2779912651039231</v>
+        <v>0.0771019486093704</v>
       </c>
       <c r="H2" t="n">
-        <v>1.549316823423494</v>
+        <v>1.45954989006134</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2775856076247266</v>
+        <v>0.4304069578080651</v>
       </c>
       <c r="J2" t="n">
-        <v>1.192504145730379</v>
+        <v>0.05134861063488684</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7350448866222983</v>
+        <v>0.240877260775369</v>
       </c>
       <c r="L2" t="n">
-        <v>3.475193928939391</v>
+        <v>0.1101101703939773</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5272487696561493</v>
+        <v>0.2776723763887405</v>
       </c>
       <c r="N2" t="n">
-        <v>1.01072822370543</v>
+        <v>1.008385539977765</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5496948413358278</v>
+        <v>0.2894934643126688</v>
       </c>
       <c r="P2" t="n">
-        <v>236.5603311725492</v>
+        <v>119.1252534498803</v>
       </c>
       <c r="Q2" t="n">
-        <v>379.1688026821287</v>
+        <v>188.6011754673677</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_1</t>
+          <t>model_18_5_3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9591760195428244</v>
+        <v>0.9886471793515571</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7678357972563231</v>
+        <v>0.7817317522216317</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9783960766998225</v>
+        <v>0.7653833375535911</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.177727762026215</v>
+        <v>0.9680004232546803</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8895770880148901</v>
+        <v>0.9053876830084482</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2729901452942788</v>
+        <v>0.07591636395106975</v>
       </c>
       <c r="H3" t="n">
-        <v>1.552483092764825</v>
+        <v>1.459560777926817</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2652303924515005</v>
+        <v>0.4219734457997897</v>
       </c>
       <c r="J3" t="n">
-        <v>1.22458474654976</v>
+        <v>0.05197086904109045</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7449075967854555</v>
+        <v>0.2369726211462196</v>
       </c>
       <c r="L3" t="n">
-        <v>3.506445949178869</v>
+        <v>0.1181731260752733</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5224845885710686</v>
+        <v>0.2755292433682308</v>
       </c>
       <c r="N3" t="n">
-        <v>1.010535220763142</v>
+        <v>1.008256596835231</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5447278391987407</v>
+        <v>0.287259093682579</v>
       </c>
       <c r="P3" t="n">
-        <v>236.5966391645437</v>
+        <v>119.1562460379806</v>
       </c>
       <c r="Q3" t="n">
-        <v>379.2051106741233</v>
+        <v>188.632168055468</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_2</t>
+          <t>model_18_5_5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9597179326072622</v>
+        <v>0.988376845788949</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7672078895206891</v>
+        <v>0.7817307095749849</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9792559741748843</v>
+        <v>0.7583082528599995</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.27719977114039</v>
+        <v>0.9685715550701247</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8881984470596637</v>
+        <v>0.9030326486654918</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2693663701371024</v>
+        <v>0.07772408572900222</v>
       </c>
       <c r="H4" t="n">
-        <v>1.556681914684258</v>
+        <v>1.459567750109745</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2546734699143419</v>
+        <v>0.4346984493709328</v>
       </c>
       <c r="J4" t="n">
-        <v>1.253742200555523</v>
+        <v>0.05104328749768756</v>
       </c>
       <c r="K4" t="n">
-        <v>0.754207841656069</v>
+        <v>0.2428712047438452</v>
       </c>
       <c r="L4" t="n">
-        <v>3.533225374901551</v>
+        <v>0.1061700146739117</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5190051735167024</v>
+        <v>0.2787903974834898</v>
       </c>
       <c r="N4" t="n">
-        <v>1.010395372230384</v>
+        <v>1.008453203062583</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5411002982421281</v>
+        <v>0.2906590818800442</v>
       </c>
       <c r="P4" t="n">
-        <v>236.6233657105026</v>
+        <v>119.1091801720026</v>
       </c>
       <c r="Q4" t="n">
-        <v>379.2318372200821</v>
+        <v>188.58510218949</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_3</t>
+          <t>model_18_5_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9600966724271651</v>
+        <v>0.9883292632991082</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7664792777898594</v>
+        <v>0.7817284446639883</v>
       </c>
       <c r="D5" t="n">
-        <v>0.979985711505486</v>
+        <v>0.7571046365858269</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.367619877334851</v>
+        <v>0.9686644503397398</v>
       </c>
       <c r="F5" t="n">
-        <v>0.886898024469245</v>
+        <v>0.9026306993730224</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2668337352174756</v>
+        <v>0.07804227005766479</v>
       </c>
       <c r="H5" t="n">
-        <v>1.561554144683265</v>
+        <v>1.459582895580009</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2457145176031012</v>
+        <v>0.436863232133322</v>
       </c>
       <c r="J5" t="n">
-        <v>1.280246340876396</v>
+        <v>0.05089241525552855</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7629804292397483</v>
+        <v>0.2438779550321066</v>
       </c>
       <c r="L5" t="n">
-        <v>3.556178230149801</v>
+        <v>0.1042314941277428</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5165595175945126</v>
+        <v>0.2793604661681119</v>
       </c>
       <c r="N5" t="n">
-        <v>1.010297632922022</v>
+        <v>1.00848780850974</v>
       </c>
       <c r="O5" t="n">
-        <v>0.538550525684125</v>
+        <v>0.2912534195687755</v>
       </c>
       <c r="P5" t="n">
-        <v>236.6422590581808</v>
+        <v>119.101009350528</v>
       </c>
       <c r="Q5" t="n">
-        <v>379.2507305677603</v>
+        <v>188.5769313680154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_4</t>
+          <t>model_18_5_7</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9603475013953284</v>
+        <v>0.9883052254786778</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7656907008695667</v>
+        <v>0.7817271310387668</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9806019107010769</v>
+        <v>0.7565010805860843</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.449799807707428</v>
+        <v>0.9687106756376153</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8856733069193362</v>
+        <v>0.9024288874164872</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2651564407524065</v>
+        <v>0.07820301107356631</v>
       </c>
       <c r="H6" t="n">
-        <v>1.566827362180325</v>
+        <v>1.459591679797913</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2381494678570888</v>
+        <v>0.4379487671600711</v>
       </c>
       <c r="J6" t="n">
-        <v>1.304335102743916</v>
+        <v>0.05081734023433719</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7712423143000385</v>
+        <v>0.2443834273621318</v>
       </c>
       <c r="L6" t="n">
-        <v>3.575953071029969</v>
+        <v>0.1032675503872137</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5149334333216348</v>
+        <v>0.2796480128189119</v>
       </c>
       <c r="N6" t="n">
-        <v>1.010232902865722</v>
+        <v>1.008505290560961</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5368552156372923</v>
+        <v>0.2915532076758037</v>
       </c>
       <c r="P6" t="n">
-        <v>236.6548705694351</v>
+        <v>119.0968942547902</v>
       </c>
       <c r="Q6" t="n">
-        <v>379.2633420790146</v>
+        <v>188.5728162722776</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_5</t>
+          <t>model_18_5_8</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9604988079431626</v>
+        <v>0.9882930792061871</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7648728432853088</v>
+        <v>0.7817264097371339</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9811203332529365</v>
+        <v>0.7561974994777736</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.524499561618102</v>
+        <v>0.9687336734482426</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8845221372007732</v>
+        <v>0.9023272571764052</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2641446531703368</v>
+        <v>0.0782842332536406</v>
       </c>
       <c r="H7" t="n">
-        <v>1.572296379612146</v>
+        <v>1.459596503145253</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2317848175583952</v>
+        <v>0.438494777682162</v>
       </c>
       <c r="J7" t="n">
-        <v>1.326231258841379</v>
+        <v>0.05077998923392066</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7790080492651026</v>
+        <v>0.2446379775639002</v>
       </c>
       <c r="L7" t="n">
-        <v>3.593189625834618</v>
+        <v>0.1027857664270684</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5139500492950038</v>
+        <v>0.2797931972969332</v>
       </c>
       <c r="N7" t="n">
-        <v>1.010193856014668</v>
+        <v>1.008514124213682</v>
       </c>
       <c r="O7" t="n">
-        <v>0.535829966916762</v>
+        <v>0.2917045729576278</v>
       </c>
       <c r="P7" t="n">
-        <v>236.6625167944368</v>
+        <v>119.0948181191226</v>
       </c>
       <c r="Q7" t="n">
-        <v>379.2709883040163</v>
+        <v>188.57074013661</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_6</t>
+          <t>model_18_5_9</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9605738452561154</v>
+        <v>0.988287018297659</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7640487380114651</v>
+        <v>0.7817260635058665</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9815552854037051</v>
+        <v>0.7560448963212197</v>
       </c>
       <c r="E8" t="n">
-        <v>-3.592361777799804</v>
+        <v>0.9687452298529459</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8834435634694439</v>
+        <v>0.9022766153303502</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2636428783131056</v>
+        <v>0.07832476257687587</v>
       </c>
       <c r="H8" t="n">
-        <v>1.577807175372995</v>
+        <v>1.459598818395333</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2264449296110512</v>
+        <v>0.4387692444618848</v>
       </c>
       <c r="J8" t="n">
-        <v>1.346123180847056</v>
+        <v>0.05076122034831311</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7862840552290535</v>
+        <v>0.2447648186706495</v>
       </c>
       <c r="L8" t="n">
-        <v>3.608083218133558</v>
+        <v>0.1025425673742503</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5134616619701081</v>
+        <v>0.2798656152100073</v>
       </c>
       <c r="N8" t="n">
-        <v>1.010174491546809</v>
+        <v>1.008518532147157</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5353207879323444</v>
+        <v>0.2917800738511871</v>
       </c>
       <c r="P8" t="n">
-        <v>236.6663196505369</v>
+        <v>119.0937829468089</v>
       </c>
       <c r="Q8" t="n">
-        <v>379.2747911601164</v>
+        <v>188.5697049642963</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_7</t>
+          <t>model_18_5_10</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9605910346219603</v>
+        <v>0.9882839880662094</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7632352366081656</v>
+        <v>0.7817259139206253</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9819194421916349</v>
+        <v>0.7559691725657118</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.654004872385595</v>
+        <v>0.9687511181575424</v>
       </c>
       <c r="F9" t="n">
-        <v>0.882435683175653</v>
+        <v>0.9022513129935225</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2635279329445518</v>
+        <v>0.07834502574853182</v>
       </c>
       <c r="H9" t="n">
-        <v>1.583247063002688</v>
+        <v>1.45959981867253</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2219741931418235</v>
+        <v>0.4389054385996216</v>
       </c>
       <c r="J9" t="n">
-        <v>1.364192140257487</v>
+        <v>0.050751657087227</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7930831666996552</v>
+        <v>0.2448281926717294</v>
       </c>
       <c r="L9" t="n">
-        <v>3.620990031721549</v>
+        <v>0.1024271734392047</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5133497179745518</v>
+        <v>0.279901814478813</v>
       </c>
       <c r="N9" t="n">
-        <v>1.01017005558143</v>
+        <v>1.008520735951848</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5352040782491412</v>
+        <v>0.2918178141978086</v>
       </c>
       <c r="P9" t="n">
-        <v>236.6671918184788</v>
+        <v>119.0932655995402</v>
       </c>
       <c r="Q9" t="n">
-        <v>379.2756633280583</v>
+        <v>188.5691876170276</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_8</t>
+          <t>model_18_5_11</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9605652061460754</v>
+        <v>0.9882824738645364</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7624446897541549</v>
+        <v>0.7817257776511114</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9822241176583997</v>
+        <v>0.7559318072182286</v>
       </c>
       <c r="E10" t="n">
-        <v>-3.709984108760246</v>
+        <v>0.9687539354366475</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8814967360890194</v>
+        <v>0.9022386024207961</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2637006480817226</v>
+        <v>0.07835515122209175</v>
       </c>
       <c r="H10" t="n">
-        <v>1.588533453455591</v>
+        <v>1.459600729907397</v>
       </c>
       <c r="I10" t="n">
-        <v>0.21823370617112</v>
+        <v>0.4389726426262521</v>
       </c>
       <c r="J10" t="n">
-        <v>1.380600897096792</v>
+        <v>0.05074708151285027</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7994172581054977</v>
+        <v>0.2448600284604618</v>
       </c>
       <c r="L10" t="n">
-        <v>3.632204462163192</v>
+        <v>0.1023640727646847</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5135179140806312</v>
+        <v>0.2799199014398436</v>
       </c>
       <c r="N10" t="n">
-        <v>1.010176720994561</v>
+        <v>1.008521837189428</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5353794348116704</v>
+        <v>0.2918366711582155</v>
       </c>
       <c r="P10" t="n">
-        <v>236.6658814559563</v>
+        <v>119.0930071320957</v>
       </c>
       <c r="Q10" t="n">
-        <v>379.2743529655357</v>
+        <v>188.5689291495831</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_9</t>
+          <t>model_18_5_12</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9605081423902464</v>
+        <v>0.9882817767338994</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7616855114343585</v>
+        <v>0.7817257372158783</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9824788119114019</v>
+        <v>0.7559134631995986</v>
       </c>
       <c r="E11" t="n">
-        <v>-3.760790541244543</v>
+        <v>0.9687553465181921</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8806246766427848</v>
+        <v>0.9022328587717937</v>
       </c>
       <c r="G11" t="n">
-        <v>0.264082233679706</v>
+        <v>0.0783598129378715</v>
       </c>
       <c r="H11" t="n">
-        <v>1.593610082375764</v>
+        <v>1.459601000297986</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2151068363086291</v>
+        <v>0.4390056355461512</v>
       </c>
       <c r="J11" t="n">
-        <v>1.395493390287086</v>
+        <v>0.05074478975959536</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8053001287404996</v>
+        <v>0.2448744144051498</v>
       </c>
       <c r="L11" t="n">
-        <v>3.641968638017099</v>
+        <v>0.1023312140601208</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5138893204569501</v>
+        <v>0.279928228190498</v>
       </c>
       <c r="N11" t="n">
-        <v>1.010191447125098</v>
+        <v>1.008522344193528</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5357666527263464</v>
+        <v>0.291845352395884</v>
       </c>
       <c r="P11" t="n">
-        <v>236.6629894662562</v>
+        <v>119.0928881462463</v>
       </c>
       <c r="Q11" t="n">
-        <v>379.2714609758357</v>
+        <v>188.5688101637337</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_10</t>
+          <t>model_18_5_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.960429057585951</v>
+        <v>0.9882813402678959</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7609634187314408</v>
+        <v>0.7817257169131735</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9826917919969211</v>
+        <v>0.7559035299259008</v>
       </c>
       <c r="E12" t="n">
-        <v>-3.806896525053441</v>
+        <v>0.9687561640195128</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8798167961988947</v>
+        <v>0.9022292169545868</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2646110741301816</v>
+        <v>0.07836273158804637</v>
       </c>
       <c r="H12" t="n">
-        <v>1.598438719605106</v>
+        <v>1.459601136062267</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2124920893998493</v>
+        <v>0.4390235011899918</v>
       </c>
       <c r="J12" t="n">
-        <v>1.409008077627475</v>
+        <v>0.05074346204659405</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8107500509453159</v>
+        <v>0.2448835359550358</v>
       </c>
       <c r="L12" t="n">
-        <v>3.650498607869265</v>
+        <v>0.1023185497743821</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5144036101449733</v>
+        <v>0.2799334413535589</v>
       </c>
       <c r="N12" t="n">
-        <v>1.010211856106851</v>
+        <v>1.008522661623348</v>
       </c>
       <c r="O12" t="n">
-        <v>0.536302836791115</v>
+        <v>0.2918507874940891</v>
       </c>
       <c r="P12" t="n">
-        <v>236.6589883516664</v>
+        <v>119.0928136540873</v>
       </c>
       <c r="Q12" t="n">
-        <v>379.2674598612459</v>
+        <v>188.5687356715748</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_11</t>
+          <t>model_18_5_14</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9603352238164052</v>
+        <v>0.9882812910545684</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7602819765484077</v>
+        <v>0.7817256819071194</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9828699893662329</v>
+        <v>0.7559030856190446</v>
       </c>
       <c r="E13" t="n">
-        <v>-3.84871465116674</v>
+        <v>0.9687558197779302</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8790704027841205</v>
+        <v>0.9022288092307447</v>
       </c>
       <c r="G13" t="n">
-        <v>0.265238540979199</v>
+        <v>0.07836306067779422</v>
       </c>
       <c r="H13" t="n">
-        <v>1.602995526620802</v>
+        <v>1.459601370147912</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2103043683299463</v>
+        <v>0.4390243003049956</v>
       </c>
       <c r="J13" t="n">
-        <v>1.42126589869306</v>
+        <v>0.05074402113318301</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8157851846404944</v>
+        <v>0.2448845571686648</v>
       </c>
       <c r="L13" t="n">
-        <v>3.65796581173499</v>
+        <v>0.1023140120946019</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5150131464139522</v>
+        <v>0.2799340291529314</v>
       </c>
       <c r="N13" t="n">
-        <v>1.010236071273186</v>
+        <v>1.008522697414859</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5369383222809785</v>
+        <v>0.2918514003172978</v>
       </c>
       <c r="P13" t="n">
-        <v>236.6542514065073</v>
+        <v>119.0928052549657</v>
       </c>
       <c r="Q13" t="n">
-        <v>379.2627229160868</v>
+        <v>188.5687272724531</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_12</t>
+          <t>model_18_5_15</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9602324045802719</v>
+        <v>0.9882811245513933</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7596429784846223</v>
+        <v>0.7817256626774731</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9830191459044596</v>
+        <v>0.7558988699766858</v>
       </c>
       <c r="E14" t="n">
-        <v>-3.886606267738946</v>
+        <v>0.9687563702669268</v>
       </c>
       <c r="F14" t="n">
-        <v>0.878382910163449</v>
+        <v>0.9022274499302337</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2659260936846611</v>
+        <v>0.07836417408529306</v>
       </c>
       <c r="H14" t="n">
-        <v>1.60726850961565</v>
+        <v>1.459601498736645</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2084731802341128</v>
+        <v>0.4390318824141001</v>
       </c>
       <c r="J14" t="n">
-        <v>1.432372772649329</v>
+        <v>0.05074312707787151</v>
       </c>
       <c r="K14" t="n">
-        <v>0.820422976441721</v>
+        <v>0.2448879617677195</v>
       </c>
       <c r="L14" t="n">
-        <v>3.66450784332651</v>
+        <v>0.1023101553956981</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5156802242520661</v>
+        <v>0.2799360178421009</v>
       </c>
       <c r="N14" t="n">
-        <v>1.010262605269607</v>
+        <v>1.008522818508078</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5376337990037023</v>
+        <v>0.2918534736690825</v>
       </c>
       <c r="P14" t="n">
-        <v>236.6490737041936</v>
+        <v>119.0927768385261</v>
       </c>
       <c r="Q14" t="n">
-        <v>379.257545213773</v>
+        <v>188.5686988560136</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_13</t>
+          <t>model_18_5_17</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9601246033108272</v>
+        <v>0.9882810346291407</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7590469329892866</v>
+        <v>0.7817256606756766</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9831441700275906</v>
+        <v>0.7558960273875488</v>
       </c>
       <c r="E15" t="n">
-        <v>-3.92096313460581</v>
+        <v>0.968756551577734</v>
       </c>
       <c r="F15" t="n">
-        <v>0.877750245893278</v>
+        <v>0.9022266668618979</v>
       </c>
       <c r="G15" t="n">
-        <v>0.266646961269818</v>
+        <v>0.0783647753958096</v>
       </c>
       <c r="H15" t="n">
-        <v>1.611254268587497</v>
+        <v>1.459601512122668</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2069382647105205</v>
+        <v>0.4390369949969859</v>
       </c>
       <c r="J15" t="n">
-        <v>1.442443533000645</v>
+        <v>0.05074283260897008</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8246908988555827</v>
+        <v>0.2448899230953982</v>
       </c>
       <c r="L15" t="n">
-        <v>3.670271750612844</v>
+        <v>0.1023070049325045</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5163786994733787</v>
+        <v>0.2799370918542407</v>
       </c>
       <c r="N15" t="n">
-        <v>1.010290424952045</v>
+        <v>1.008522883906079</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5383620097612293</v>
+        <v>0.2918545934041426</v>
       </c>
       <c r="P15" t="n">
-        <v>236.6436594759018</v>
+        <v>119.0927614920182</v>
       </c>
       <c r="Q15" t="n">
-        <v>379.2521309854812</v>
+        <v>188.5686835095056</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_14</t>
+          <t>model_18_5_24</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9600153791502778</v>
+        <v>0.9882809440766456</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7584934154920894</v>
+        <v>0.7817256568385125</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9832492612400332</v>
+        <v>0.7558932709523236</v>
       </c>
       <c r="E16" t="n">
-        <v>-3.952072664148883</v>
+        <v>0.9687568229191986</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8771699946312044</v>
+        <v>0.9022259098507061</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2673773437343426</v>
+        <v>0.07836538092076221</v>
       </c>
       <c r="H16" t="n">
-        <v>1.614955642639968</v>
+        <v>1.459601537781801</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2056480646328741</v>
+        <v>0.439041952626414</v>
       </c>
       <c r="J16" t="n">
-        <v>1.451562426696176</v>
+        <v>0.05074239192027476</v>
       </c>
       <c r="K16" t="n">
-        <v>0.828605245664525</v>
+        <v>0.2448918191585335</v>
       </c>
       <c r="L16" t="n">
-        <v>3.675342657239166</v>
+        <v>0.1023061085894265</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5170854317560519</v>
+        <v>0.2799381733897008</v>
       </c>
       <c r="N16" t="n">
-        <v>1.010318611832186</v>
+        <v>1.00852294976244</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5390988291003135</v>
+        <v>0.2918557209828063</v>
       </c>
       <c r="P16" t="n">
-        <v>236.6381886917963</v>
+        <v>119.0927460380694</v>
       </c>
       <c r="Q16" t="n">
-        <v>379.2466602013758</v>
+        <v>188.5686680555568</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_15</t>
+          <t>model_18_5_23</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9599070789714397</v>
+        <v>0.9882809440766456</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7579814588658764</v>
+        <v>0.7817256568385125</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9833376214477705</v>
+        <v>0.7558932709523236</v>
       </c>
       <c r="E17" t="n">
-        <v>-3.980230765920013</v>
+        <v>0.9687568229191986</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8766386410833692</v>
+        <v>0.9022259098507061</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2681015475289096</v>
+        <v>0.07836538092076221</v>
       </c>
       <c r="H17" t="n">
-        <v>1.618379098956798</v>
+        <v>1.459601537781801</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2045632703457609</v>
+        <v>0.439041952626414</v>
       </c>
       <c r="J17" t="n">
-        <v>1.459816191394333</v>
+        <v>0.05074239192027476</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8321897308700468</v>
+        <v>0.2448918191585335</v>
       </c>
       <c r="L17" t="n">
-        <v>3.679819005396703</v>
+        <v>0.1023061085894265</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5177852330154942</v>
+        <v>0.2799381733897008</v>
       </c>
       <c r="N17" t="n">
-        <v>1.010346560265435</v>
+        <v>1.00852294976244</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5398284223481584</v>
+        <v>0.2918557209828063</v>
       </c>
       <c r="P17" t="n">
-        <v>236.6327789230982</v>
+        <v>119.0927460380694</v>
       </c>
       <c r="Q17" t="n">
-        <v>379.2412504326776</v>
+        <v>188.5686680555568</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_16</t>
+          <t>model_18_5_18</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9598013994700726</v>
+        <v>0.9882809884750228</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7575093867758761</v>
+        <v>0.7817256552168912</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9834120945618774</v>
+        <v>0.755895262143909</v>
       </c>
       <c r="E18" t="n">
-        <v>-4.00571887468006</v>
+        <v>0.9687566231479061</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8761526586747186</v>
+        <v>0.9022263043468725</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2688082268411601</v>
+        <v>0.07836508402860914</v>
       </c>
       <c r="H18" t="n">
-        <v>1.621535847196322</v>
+        <v>1.45960154862559</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2036489672811189</v>
+        <v>0.4390383713378314</v>
       </c>
       <c r="J18" t="n">
-        <v>1.467287321870967</v>
+        <v>0.05074271637105624</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8354681445760429</v>
+        <v>0.2448908310758655</v>
       </c>
       <c r="L18" t="n">
-        <v>3.683776852812981</v>
+        <v>0.1023066064877937</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5184671897441149</v>
+        <v>0.2799376431075484</v>
       </c>
       <c r="N18" t="n">
-        <v>1.01037383239482</v>
+        <v>1.008522917472711</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5405394113865616</v>
+        <v>0.2918551681254448</v>
       </c>
       <c r="P18" t="n">
-        <v>236.6275141299872</v>
+        <v>119.092753615209</v>
       </c>
       <c r="Q18" t="n">
-        <v>379.2359856395667</v>
+        <v>188.5686756326964</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_17</t>
+          <t>model_18_5_19</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9596996351195625</v>
+        <v>0.9882809884750228</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7570753789489437</v>
+        <v>0.7817256552168912</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9834749326225275</v>
+        <v>0.755895262143909</v>
       </c>
       <c r="E19" t="n">
-        <v>-4.028773096038835</v>
+        <v>0.9687566231479061</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8757089520594523</v>
+        <v>0.9022263043468725</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2694887255216034</v>
+        <v>0.07836508402860914</v>
       </c>
       <c r="H19" t="n">
-        <v>1.624438059533441</v>
+        <v>1.45960154862559</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2028775072432575</v>
+        <v>0.4390383713378314</v>
       </c>
       <c r="J19" t="n">
-        <v>1.474045025921516</v>
+        <v>0.05074271637105624</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8384613678348201</v>
+        <v>0.2448908310758655</v>
       </c>
       <c r="L19" t="n">
-        <v>3.687283397258875</v>
+        <v>0.1023066064877937</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5191230350520032</v>
+        <v>0.2799376431075484</v>
       </c>
       <c r="N19" t="n">
-        <v>1.010400094162694</v>
+        <v>1.008522917472711</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5412231773869937</v>
+        <v>0.2918551681254448</v>
       </c>
       <c r="P19" t="n">
-        <v>236.6224574486149</v>
+        <v>119.092753615209</v>
       </c>
       <c r="Q19" t="n">
-        <v>379.2309289581943</v>
+        <v>188.5686756326964</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_18</t>
+          <t>model_18_5_20</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9596026216047688</v>
+        <v>0.9882809884750228</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7566773815207241</v>
+        <v>0.7817256552168912</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9835282033414612</v>
+        <v>0.755895262143909</v>
       </c>
       <c r="E20" t="n">
-        <v>-4.049624230596635</v>
+        <v>0.9687566231479061</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8753044334550962</v>
+        <v>0.9022263043468725</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2701374553417348</v>
+        <v>0.07836508402860914</v>
       </c>
       <c r="H20" t="n">
-        <v>1.627099470168555</v>
+        <v>1.45960154862559</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2022235050283514</v>
+        <v>0.4390383713378314</v>
       </c>
       <c r="J20" t="n">
-        <v>1.480156956325367</v>
+        <v>0.05074271637105624</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8411902306768592</v>
+        <v>0.2448908310758655</v>
       </c>
       <c r="L20" t="n">
-        <v>3.690392645791292</v>
+        <v>0.1023066064877937</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5197474919051892</v>
+        <v>0.2799376431075484</v>
       </c>
       <c r="N20" t="n">
-        <v>1.010425129908447</v>
+        <v>1.008522917472711</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5418742186612238</v>
+        <v>0.2918551681254448</v>
       </c>
       <c r="P20" t="n">
-        <v>236.6176487113396</v>
+        <v>119.092753615209</v>
       </c>
       <c r="Q20" t="n">
-        <v>379.2261202209191</v>
+        <v>188.5686756326964</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_19</t>
+          <t>model_18_5_22</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9595109531860853</v>
+        <v>0.9882809440766456</v>
       </c>
       <c r="C21" t="n">
-        <v>0.75631307743827</v>
+        <v>0.7817256548771039</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9835734423676536</v>
+        <v>0.7558932709523236</v>
       </c>
       <c r="E21" t="n">
-        <v>-4.068466705536133</v>
+        <v>0.9687568229191986</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8749362311136675</v>
+        <v>0.9022259098507061</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2707504424795658</v>
+        <v>0.07836538092076221</v>
       </c>
       <c r="H21" t="n">
-        <v>1.629535573245392</v>
+        <v>1.45960155089775</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2016681075431614</v>
+        <v>0.439041952626414</v>
       </c>
       <c r="J21" t="n">
-        <v>1.485680104005761</v>
+        <v>0.05074239192027476</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8436741057744614</v>
+        <v>0.2448918191585335</v>
       </c>
       <c r="L21" t="n">
-        <v>3.6931564116881</v>
+        <v>0.1023061085894265</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5203368548157682</v>
+        <v>0.2799381733897008</v>
       </c>
       <c r="N21" t="n">
-        <v>1.010448786274559</v>
+        <v>1.00852294976244</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5424886719710554</v>
+        <v>0.2918557209828063</v>
       </c>
       <c r="P21" t="n">
-        <v>236.6131155176576</v>
+        <v>119.0927460380694</v>
       </c>
       <c r="Q21" t="n">
-        <v>379.2215870272371</v>
+        <v>188.5686680555568</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_20</t>
+          <t>model_18_5_21</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9594248401725646</v>
+        <v>0.9882809730944373</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7559803676278931</v>
+        <v>0.7817256467484184</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9836119071748726</v>
+        <v>0.7558940226170892</v>
       </c>
       <c r="E22" t="n">
-        <v>-4.085495938426367</v>
+        <v>0.9687567486113295</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8746012555341424</v>
+        <v>0.9022261534613834</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2713262805974925</v>
+        <v>0.07836518687865481</v>
       </c>
       <c r="H22" t="n">
-        <v>1.63176040527937</v>
+        <v>1.459601605254308</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2011958768389286</v>
+        <v>0.4390406007080639</v>
       </c>
       <c r="J22" t="n">
-        <v>1.490671750190172</v>
+        <v>0.05074251260451274</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8459338347513556</v>
+        <v>0.2448912089942061</v>
       </c>
       <c r="L22" t="n">
-        <v>3.695613175383704</v>
+        <v>0.10230573924894</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5208898929692268</v>
+        <v>0.2799378268091949</v>
       </c>
       <c r="N22" t="n">
-        <v>1.010471008987725</v>
+        <v>1.008522928658591</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5430652541036536</v>
+        <v>0.2918553596476507</v>
       </c>
       <c r="P22" t="n">
-        <v>236.6088663897389</v>
+        <v>119.0927509903161</v>
       </c>
       <c r="Q22" t="n">
-        <v>379.2173378993184</v>
+        <v>188.5686730078035</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_21</t>
+          <t>model_18_5_16</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9593444625670769</v>
+        <v>0.9882811216792888</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7556769324814728</v>
+        <v>0.7817256363986003</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9836446834370981</v>
+        <v>0.755898281198629</v>
       </c>
       <c r="E23" t="n">
-        <v>-4.10087231077646</v>
+        <v>0.9687563509374886</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8742970324048163</v>
+        <v>0.902227394521751</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2718637660154929</v>
+        <v>0.07836419329106881</v>
       </c>
       <c r="H23" t="n">
-        <v>1.633789477500673</v>
+        <v>1.459601674463589</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2007934841451395</v>
+        <v>0.4390329413700278</v>
       </c>
       <c r="J23" t="n">
-        <v>1.495178906259159</v>
+        <v>0.05074315847102755</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8479861091940315</v>
+        <v>0.2448881005476773</v>
       </c>
       <c r="L23" t="n">
-        <v>3.697798438134718</v>
+        <v>0.1023082989925186</v>
       </c>
       <c r="M23" t="n">
-        <v>0.52140556768747</v>
+        <v>0.2799360521459657</v>
       </c>
       <c r="N23" t="n">
-        <v>1.010491751595593</v>
+        <v>1.008522820596881</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5436028821622463</v>
+        <v>0.2918535094333338</v>
       </c>
       <c r="P23" t="n">
-        <v>236.6049083967914</v>
+        <v>119.092776348359</v>
       </c>
       <c r="Q23" t="n">
-        <v>379.2133799063708</v>
+        <v>188.5686983658464</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_22</t>
+          <t>model_18_5_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.959269794510309</v>
+        <v>0.9889673699685043</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7554005983251727</v>
+        <v>0.7817000026057984</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9836727160595078</v>
+        <v>0.7744331130432376</v>
       </c>
       <c r="E24" t="n">
-        <v>-4.114752679375276</v>
+        <v>0.9672082863395093</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8740209724574561</v>
+        <v>0.9083802423743493</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2723630716549154</v>
+        <v>0.0737752478212019</v>
       </c>
       <c r="H24" t="n">
-        <v>1.635637325276253</v>
+        <v>1.459773087754087</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2004493289035257</v>
+        <v>0.405696831397124</v>
       </c>
       <c r="J24" t="n">
-        <v>1.499247550419533</v>
+        <v>0.05325738742877452</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8498483961801278</v>
+        <v>0.2294772478225053</v>
       </c>
       <c r="L24" t="n">
-        <v>3.699745444701825</v>
+        <v>0.1351035658466952</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5218841553974554</v>
+        <v>0.2716159933089395</v>
       </c>
       <c r="N24" t="n">
-        <v>1.010511020771533</v>
+        <v>1.008023730931997</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5441018443418588</v>
+        <v>0.2831792484667194</v>
       </c>
       <c r="P24" t="n">
-        <v>236.6012385610173</v>
+        <v>119.21346399802</v>
       </c>
       <c r="Q24" t="n">
-        <v>379.2097100705968</v>
+        <v>188.6893860155074</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_23</t>
+          <t>model_18_5_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9592006783466351</v>
+        <v>0.9894737827010223</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7551493175670226</v>
+        <v>0.7815181452139003</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9836967777202086</v>
+        <v>0.7913295507852529</v>
       </c>
       <c r="E25" t="n">
-        <v>-4.127282973364323</v>
+        <v>0.9655522336253878</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8737706401890344</v>
+        <v>0.9139098802848824</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2728252517596527</v>
+        <v>0.07038886354703801</v>
       </c>
       <c r="H25" t="n">
-        <v>1.637317640863045</v>
+        <v>1.460989168971087</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2001539249798027</v>
+        <v>0.3753074806093537</v>
       </c>
       <c r="J25" t="n">
-        <v>1.502920457742084</v>
+        <v>0.05594700108884706</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8515371254946842</v>
+        <v>0.215627330271437</v>
       </c>
       <c r="L25" t="n">
-        <v>3.701482708846703</v>
+        <v>0.1723897665804522</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5223267672249362</v>
+        <v>0.265308996355265</v>
       </c>
       <c r="N25" t="n">
-        <v>1.010528857200868</v>
+        <v>1.007655430762893</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5445632990711683</v>
+        <v>0.2766037495954433</v>
       </c>
       <c r="P25" t="n">
-        <v>236.5978475843907</v>
+        <v>119.307440433167</v>
       </c>
       <c r="Q25" t="n">
-        <v>379.2063190939702</v>
+        <v>188.7833624506545</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_18_5_24</t>
+          <t>model_18_5_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9591368960382104</v>
+        <v>0.9899777205334267</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7549210157671451</v>
+        <v>0.780638622473893</v>
       </c>
       <c r="D26" t="n">
-        <v>0.983717417560914</v>
+        <v>0.8211347059818896</v>
       </c>
       <c r="E26" t="n">
-        <v>-4.138592216762945</v>
+        <v>0.962220895314674</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8735437094382943</v>
+        <v>0.9235311392790111</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2732517643497797</v>
+        <v>0.06701902894132945</v>
       </c>
       <c r="H26" t="n">
-        <v>1.638844296050059</v>
+        <v>1.466870541583345</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1999005305859052</v>
+        <v>0.3217009553533089</v>
       </c>
       <c r="J26" t="n">
-        <v>1.506235448031028</v>
+        <v>0.06135746474765144</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8530679893084668</v>
+        <v>0.1915292526102706</v>
       </c>
       <c r="L26" t="n">
-        <v>3.703033304561284</v>
+        <v>0.2610602747381023</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5227348891644594</v>
+        <v>0.2588803371083433</v>
       </c>
       <c r="N26" t="n">
-        <v>1.01054531715143</v>
+        <v>1.007288930521144</v>
       </c>
       <c r="O26" t="n">
-        <v>0.544988795606586</v>
+        <v>0.2699014090152209</v>
       </c>
       <c r="P26" t="n">
-        <v>236.5947233900791</v>
+        <v>119.4055573717317</v>
       </c>
       <c r="Q26" t="n">
-        <v>379.2031948996586</v>
+        <v>188.8814793892191</v>
       </c>
     </row>
   </sheetData>
